--- a/public/file_ki/KI.xlsx
+++ b/public/file_ki/KI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Manajemen Data LPPM\Sistem-Manajemen-Data-LPPM\public\file_ki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5642A967-B1F7-4461-8940-AF4CB597D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C74336-A551-434A-ACA0-F8C42D550B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9ECFCB5-3E58-4BA0-88E7-74F84B807E7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C0A108B-34A5-4BE4-AA5A-82E826D7D70A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Jenis HKI</t>
   </si>
   <si>
-    <t xml:space="preserve">Protoipe </t>
-  </si>
-  <si>
     <t>PATENT HOLDER</t>
   </si>
   <si>
@@ -285,30 +282,22 @@
   </si>
   <si>
     <t>Luaran PNLT/PKM</t>
+  </si>
+  <si>
+    <t>Prototipe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -320,12 +309,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -333,37 +322,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,16 +664,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A31F75D-AF0F-46C2-8A06-98997F142D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D4BDD2-B861-4DD2-93D4-B4595A3A380B}">
   <dimension ref="A1:CE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="67.6640625" customWidth="1"/>
@@ -776,7 +741,7 @@
     <col min="81" max="81" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,247 +757,242 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{86DA259F-2C63-499B-8996-46A891628E00}">
-      <formula1>"Ada (Alat Tidak Diketahui),Ada ( Alat Ada dan Fungsi),Tidak Ada"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/file_ki/KI.xlsx
+++ b/public/file_ki/KI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Manajemen Data LPPM\Sistem-Manajemen-Data-LPPM\public\file_ki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C74336-A551-434A-ACA0-F8C42D550B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B319CD92-BCC6-4F4B-A184-236189A193F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C0A108B-34A5-4BE4-AA5A-82E826D7D70A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -62,12 +62,6 @@
     <t>INVENTOR</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>Jabatan</t>
   </si>
   <si>
@@ -98,12 +92,6 @@
     <t>Anggota 1</t>
   </si>
   <si>
-    <t>Anggota 12</t>
-  </si>
-  <si>
-    <t>Anggota 13</t>
-  </si>
-  <si>
     <t>Status Anggota 1</t>
   </si>
   <si>
@@ -113,12 +101,6 @@
     <t>Anggota 2</t>
   </si>
   <si>
-    <t>Anggota 23</t>
-  </si>
-  <si>
-    <t>Anggota 22</t>
-  </si>
-  <si>
     <t>Status Anggota 2</t>
   </si>
   <si>
@@ -128,12 +110,6 @@
     <t>Anggota 3</t>
   </si>
   <si>
-    <t>Anggota 33</t>
-  </si>
-  <si>
-    <t>Anggota 32</t>
-  </si>
-  <si>
     <t>Status Anggota 3</t>
   </si>
   <si>
@@ -143,12 +119,6 @@
     <t>Anggota 4</t>
   </si>
   <si>
-    <t>Anggota 42</t>
-  </si>
-  <si>
-    <t>Anggota 43</t>
-  </si>
-  <si>
     <t>Status Anggota 4</t>
   </si>
   <si>
@@ -158,12 +128,6 @@
     <t>Anggota 5</t>
   </si>
   <si>
-    <t>Anggota 53</t>
-  </si>
-  <si>
-    <t>Anggota 52</t>
-  </si>
-  <si>
     <t>Status Anggota 5</t>
   </si>
   <si>
@@ -173,12 +137,6 @@
     <t>Anggota 6</t>
   </si>
   <si>
-    <t>Anggota 62</t>
-  </si>
-  <si>
-    <t>Anggota 63</t>
-  </si>
-  <si>
     <t>Status Anggota 6</t>
   </si>
   <si>
@@ -188,12 +146,6 @@
     <t>Anggota 7</t>
   </si>
   <si>
-    <t>Anggota 72</t>
-  </si>
-  <si>
-    <t>Anggota 73</t>
-  </si>
-  <si>
     <t>Status Anggota 7</t>
   </si>
   <si>
@@ -203,12 +155,6 @@
     <t>Anggota 8</t>
   </si>
   <si>
-    <t>Anggota 82</t>
-  </si>
-  <si>
-    <t>Anggota 83</t>
-  </si>
-  <si>
     <t>Status Anggota 8</t>
   </si>
   <si>
@@ -218,12 +164,6 @@
     <t>Anggota 9</t>
   </si>
   <si>
-    <t>Anggota 92</t>
-  </si>
-  <si>
-    <t>Anggota 93</t>
-  </si>
-  <si>
     <t>Status Anggota 9</t>
   </si>
   <si>
@@ -233,12 +173,6 @@
     <t>Nama Anggota 10</t>
   </si>
   <si>
-    <t>Nama Anggota 102</t>
-  </si>
-  <si>
-    <t>Nama Anggota 103</t>
-  </si>
-  <si>
     <t>Status Anggota 10</t>
   </si>
   <si>
@@ -248,12 +182,6 @@
     <t>Nama Anggota 11</t>
   </si>
   <si>
-    <t>Nama Anggota 112</t>
-  </si>
-  <si>
-    <t>Nama Anggota 113</t>
-  </si>
-  <si>
     <t>Status Anggota 11</t>
   </si>
   <si>
@@ -261,12 +189,6 @@
   </si>
   <si>
     <t>Nama Anggota 12</t>
-  </si>
-  <si>
-    <t>Nama Anggota 122</t>
-  </si>
-  <si>
-    <t>Nama Anggota 123</t>
   </si>
   <si>
     <t>Status Anggota 12</t>
@@ -665,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D4BDD2-B861-4DD2-93D4-B4595A3A380B}">
-  <dimension ref="A1:CE1"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,68 +602,55 @@
     <col min="5" max="5" width="67.6640625" customWidth="1"/>
     <col min="6" max="7" width="38.44140625" customWidth="1"/>
     <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="9" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="28.33203125" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
-    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.44140625" customWidth="1"/>
+    <col min="46" max="46" width="23" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -912,84 +821,6 @@
       </c>
       <c r="BE1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/public/file_ki/KI.xlsx
+++ b/public/file_ki/KI.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Manajemen Data LPPM\Sistem-Manajemen-Data-LPPM\public\file_ki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B319CD92-BCC6-4F4B-A184-236189A193F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2965E29A-3671-48B8-A8CF-725441158819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C0A108B-34A5-4BE4-AA5A-82E826D7D70A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5C0A108B-34A5-4BE4-AA5A-82E826D7D70A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Application Number</t>
   </si>
@@ -65,9 +62,6 @@
     <t>Jabatan</t>
   </si>
   <si>
-    <t>Prodi</t>
-  </si>
-  <si>
     <t>PUBLICATION NUMBER</t>
   </si>
   <si>
@@ -95,115 +89,73 @@
     <t>Status Anggota 1</t>
   </si>
   <si>
-    <t>Prodi 1</t>
-  </si>
-  <si>
     <t>Anggota 2</t>
   </si>
   <si>
     <t>Status Anggota 2</t>
   </si>
   <si>
-    <t>Prodi 2</t>
-  </si>
-  <si>
     <t>Anggota 3</t>
   </si>
   <si>
     <t>Status Anggota 3</t>
   </si>
   <si>
-    <t>Prodi 3</t>
-  </si>
-  <si>
     <t>Anggota 4</t>
   </si>
   <si>
     <t>Status Anggota 4</t>
   </si>
   <si>
-    <t>Prodi 4</t>
-  </si>
-  <si>
     <t>Anggota 5</t>
   </si>
   <si>
     <t>Status Anggota 5</t>
   </si>
   <si>
-    <t>Prodi 5</t>
-  </si>
-  <si>
     <t>Anggota 6</t>
   </si>
   <si>
     <t>Status Anggota 6</t>
   </si>
   <si>
-    <t>Prodi 6</t>
-  </si>
-  <si>
     <t>Anggota 7</t>
   </si>
   <si>
     <t>Status Anggota 7</t>
   </si>
   <si>
-    <t>Prodi 7</t>
-  </si>
-  <si>
     <t>Anggota 8</t>
   </si>
   <si>
     <t>Status Anggota 8</t>
   </si>
   <si>
-    <t>Prodi 8</t>
-  </si>
-  <si>
     <t>Anggota 9</t>
   </si>
   <si>
     <t>Status Anggota 9</t>
   </si>
   <si>
-    <t>Prodi 9</t>
-  </si>
-  <si>
     <t>Nama Anggota 10</t>
   </si>
   <si>
     <t>Status Anggota 10</t>
   </si>
   <si>
-    <t>Prodi 10</t>
-  </si>
-  <si>
     <t>Nama Anggota 11</t>
   </si>
   <si>
     <t>Status Anggota 11</t>
   </si>
   <si>
-    <t>Prodi 11</t>
-  </si>
-  <si>
     <t>Nama Anggota 12</t>
   </si>
   <si>
     <t>Status Anggota 12</t>
   </si>
   <si>
-    <t>Prodi 12</t>
-  </si>
-  <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>Luaran TA / Non TA</t>
-  </si>
-  <si>
-    <t>Luaran PNLT/PKM</t>
   </si>
   <si>
     <t>Prototipe</t>
@@ -587,70 +539,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D4BDD2-B861-4DD2-93D4-B4595A3A380B}">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="67.6640625" customWidth="1"/>
-    <col min="6" max="7" width="38.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" customWidth="1"/>
-    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" customWidth="1"/>
+    <col min="5" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
+    <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.44140625" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -773,54 +710,6 @@
       </c>
       <c r="AO1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
